--- a/field_scale/field_data/полевые данные общая/мокрое просеивание архангельское 2020(и другие объекты).xlsx
+++ b/field_scale/field_data/полевые данные общая/мокрое просеивание архангельское 2020(и другие объекты).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\field_scale\field_data\полевые данные общая\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_notebooks\total_archangelskiy\field_scale\field_data\полевые данные общая\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D071C-72AC-4B4F-A90B-44DD6BB726AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F73EBEF-FBA2-40C4-9097-4354A8557F2D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,13 +494,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114:B141"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
@@ -525,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -546,7 +547,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -567,7 +568,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -588,7 +589,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -609,7 +610,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -630,7 +631,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -651,7 +652,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -672,7 +673,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -693,7 +694,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -713,7 +714,7 @@
         <v>132.12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -733,7 +734,7 @@
         <v>98.72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -753,7 +754,7 @@
         <v>127.85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -773,7 +774,7 @@
         <v>131.91999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -793,7 +794,7 @@
         <v>127.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -834,7 +835,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
@@ -855,7 +856,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
@@ -876,7 +877,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
@@ -897,7 +898,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -918,7 +919,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -939,7 +940,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
@@ -960,7 +961,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -981,7 +982,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1003,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1045,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1066,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1108,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1129,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
@@ -1149,7 +1150,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1171,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>25</v>
       </c>
@@ -1191,7 +1192,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>25</v>
       </c>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1255,7 @@
       </c>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>25</v>
       </c>
@@ -1275,7 +1276,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>98.82</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -1358,7 +1359,7 @@
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
@@ -1379,7 +1380,7 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
@@ -1400,7 +1401,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>25</v>
       </c>
@@ -1421,7 +1422,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1443,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>25</v>
       </c>
@@ -1463,7 +1464,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1485,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>25</v>
       </c>
@@ -1505,7 +1506,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +1527,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>25</v>
       </c>
@@ -1547,7 +1548,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1569,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>25</v>
       </c>
@@ -1589,7 +1590,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>25</v>
       </c>
@@ -1610,7 +1611,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1632,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>25</v>
       </c>
@@ -1652,7 +1653,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
@@ -1673,7 +1674,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>25</v>
       </c>
@@ -1690,11 +1691,11 @@
         <v>127.4</v>
       </c>
       <c r="F57" s="2">
-        <v>13.92</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1716,7 @@
       </c>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1737,7 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1758,7 @@
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>24</v>
       </c>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>24</v>
       </c>
@@ -1799,7 +1800,7 @@
       </c>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1821,7 @@
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>24</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>117.51</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>24</v>
       </c>
@@ -1861,7 +1862,7 @@
       </c>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1883,7 @@
       </c>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>24</v>
       </c>
@@ -1903,7 +1904,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>24</v>
       </c>
@@ -1924,7 +1925,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>24</v>
       </c>
@@ -1945,7 +1946,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>24</v>
       </c>
@@ -1966,7 +1967,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +1988,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2009,7 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>24</v>
       </c>
@@ -2029,7 +2030,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>24</v>
       </c>
@@ -2050,7 +2051,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>24</v>
       </c>
@@ -2071,7 +2072,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2093,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2114,7 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>24</v>
       </c>
@@ -2134,7 +2135,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>24</v>
       </c>
@@ -2155,7 +2156,7 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>24</v>
       </c>
@@ -2176,7 +2177,7 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>24</v>
       </c>
@@ -2197,7 +2198,7 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>24</v>
       </c>
@@ -2218,7 +2219,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>24</v>
       </c>
@@ -2239,7 +2240,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>24</v>
       </c>
@@ -2260,7 +2261,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>24</v>
       </c>
@@ -2281,7 +2282,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>26</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>145.54</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>26</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>136.13999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>26</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>132.04</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>26</v>
       </c>
@@ -2362,7 +2363,7 @@
       </c>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +2384,7 @@
       </c>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2405,7 @@
       </c>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>26</v>
       </c>
@@ -2425,7 +2426,7 @@
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>26</v>
       </c>
@@ -2446,7 +2447,7 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>26</v>
       </c>
@@ -2467,7 +2468,7 @@
       </c>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>26</v>
       </c>
@@ -2488,7 +2489,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>26</v>
       </c>
@@ -2509,7 +2510,7 @@
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>26</v>
       </c>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>26</v>
       </c>
@@ -2551,7 +2552,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>26</v>
       </c>
@@ -2572,7 +2573,7 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>26</v>
       </c>
@@ -2593,7 +2594,7 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>26</v>
       </c>
@@ -2614,7 +2615,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>26</v>
       </c>
@@ -2635,7 +2636,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>26</v>
       </c>
@@ -2656,7 +2657,7 @@
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>26</v>
       </c>
@@ -2677,7 +2678,7 @@
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>26</v>
       </c>
@@ -2698,7 +2699,7 @@
       </c>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>26</v>
       </c>
@@ -2719,7 +2720,7 @@
       </c>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>26</v>
       </c>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>26</v>
       </c>
@@ -2761,7 +2762,7 @@
       </c>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>26</v>
       </c>
@@ -2782,7 +2783,7 @@
       </c>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>26</v>
       </c>
@@ -2803,7 +2804,7 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>26</v>
       </c>
@@ -2824,7 +2825,7 @@
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>26</v>
       </c>
@@ -2845,7 +2846,7 @@
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>26</v>
       </c>
@@ -2866,7 +2867,7 @@
       </c>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>23</v>
       </c>
@@ -2887,7 +2888,7 @@
       </c>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>23</v>
       </c>
@@ -2908,7 +2909,7 @@
       </c>
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>23</v>
       </c>
@@ -2929,7 +2930,7 @@
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>23</v>
       </c>
@@ -2950,7 +2951,7 @@
       </c>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>23</v>
       </c>
@@ -2971,7 +2972,7 @@
       </c>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>23</v>
       </c>
@@ -2992,7 +2993,7 @@
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>23</v>
       </c>
@@ -3013,7 +3014,7 @@
       </c>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>23</v>
       </c>
@@ -3034,7 +3035,7 @@
       </c>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>23</v>
       </c>
@@ -3055,7 +3056,7 @@
       </c>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>23</v>
       </c>
@@ -3076,7 +3077,7 @@
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>23</v>
       </c>
@@ -3097,7 +3098,7 @@
       </c>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3119,7 @@
       </c>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>23</v>
       </c>
@@ -3139,7 +3140,7 @@
       </c>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>23</v>
       </c>
@@ -3160,7 +3161,7 @@
       </c>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>23</v>
       </c>
@@ -3181,7 +3182,7 @@
       </c>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>23</v>
       </c>
@@ -3202,7 +3203,7 @@
       </c>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>23</v>
       </c>
@@ -3223,7 +3224,7 @@
       </c>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>23</v>
       </c>
@@ -3244,7 +3245,7 @@
       </c>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>23</v>
       </c>
@@ -3265,7 +3266,7 @@
       </c>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>23</v>
       </c>
@@ -3286,7 +3287,7 @@
       </c>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>23</v>
       </c>
@@ -3307,7 +3308,7 @@
       </c>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>23</v>
       </c>
@@ -3328,7 +3329,7 @@
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>23</v>
       </c>
@@ -3347,7 +3348,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +3369,7 @@
       </c>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>23</v>
       </c>
@@ -3389,7 +3390,7 @@
       </c>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>23</v>
       </c>
@@ -3410,7 +3411,7 @@
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>23</v>
       </c>
@@ -3431,7 +3432,7 @@
       </c>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>23</v>
       </c>
